--- a/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/GuoTai_N.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/GuoTai_N.xlsx
@@ -9,82 +9,12 @@
   <sheets>
     <sheet name="交割单--国泰普通" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
-  <si>
-    <t>成交日期</t>
-  </si>
-  <si>
-    <t>证券代码</t>
-  </si>
-  <si>
-    <t>证券名称</t>
-  </si>
-  <si>
-    <t>操作</t>
-  </si>
-  <si>
-    <t>成交数量</t>
-  </si>
-  <si>
-    <t>成交均价</t>
-  </si>
-  <si>
-    <t>成交金额</t>
-  </si>
-  <si>
-    <t>股票余额</t>
-  </si>
-  <si>
-    <t>发生金额</t>
-  </si>
-  <si>
-    <t>手续费</t>
-  </si>
-  <si>
-    <t>印花税</t>
-  </si>
-  <si>
-    <t>其他杂费</t>
-  </si>
-  <si>
-    <t>资金余额</t>
-  </si>
-  <si>
-    <t>合同编号</t>
-  </si>
-  <si>
-    <t>市场名称</t>
-  </si>
-  <si>
-    <t>股东帐户</t>
-  </si>
-  <si>
-    <t>亚星锚链</t>
-  </si>
-  <si>
-    <t>证券买入</t>
-  </si>
-  <si>
-    <t>沪A</t>
-  </si>
-  <si>
-    <t>A140147501</t>
-  </si>
-  <si>
-    <t>长春一东</t>
-  </si>
-  <si>
-    <t>证券卖出</t>
-  </si>
-  <si>
-    <t>北方股份</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,217 +364,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="Q1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="str">
+        <f>"成交日期"</f>
+        <v>成交日期</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>"业务名称"</f>
+        <v>业务名称</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>"证券代码"</f>
+        <v>证券代码</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>"证券名称"</f>
+        <v>证券名称</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>"成交价格"</f>
+        <v>成交价格</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f>"成交数量"</f>
+        <v>成交数量</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f>"剩余数量"</f>
+        <v>剩余数量</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f>"成交金额"</f>
+        <v>成交金额</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f>"清算金额"</f>
+        <v>清算金额</v>
+      </c>
+      <c r="J1" s="1" t="str">
+        <f>"剩余金额"</f>
+        <v>剩余金额</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f>"净佣金"</f>
+        <v>净佣金</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f>"规费"</f>
+        <v>规费</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <f>"印花税"</f>
+        <v>印花税</v>
+      </c>
+      <c r="N1" s="1" t="str">
+        <f>"过户费"</f>
+        <v>过户费</v>
+      </c>
+      <c r="O1" s="1" t="str">
+        <f>"结算费"</f>
+        <v>结算费</v>
+      </c>
+      <c r="P1" s="1" t="str">
+        <f>"附加费"</f>
+        <v>附加费</v>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <f>"成交编号"</f>
+        <v>成交编号</v>
+      </c>
+      <c r="R1" s="1" t="str">
+        <f>"股东代码"</f>
+        <v>股东代码</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>20160713</v>
-      </c>
-      <c r="B2" s="1">
-        <v>601890</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="str">
+        <f t="shared" ref="A2:A4" si="0">"20160729"</f>
+        <v>20160729</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f t="shared" ref="B2" si="1">"融资买入"</f>
+        <v>融资买入</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f t="shared" ref="C2" si="2">"601336"</f>
+        <v>601336</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2" si="3">"新华保险"</f>
+        <v>新华保险</v>
       </c>
       <c r="E2" s="1">
-        <v>2000</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="F2" s="1">
-        <v>10.340999999999999</v>
+        <v>97000</v>
       </c>
       <c r="G2" s="1">
-        <v>20681.75</v>
+        <v>228600</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>3860553</v>
       </c>
       <c r="I2" s="1">
-        <v>20655.48</v>
+        <v>-3861595.35</v>
       </c>
       <c r="J2" s="1">
-        <v>5.17</v>
+        <v>409555.31</v>
       </c>
       <c r="K2" s="1">
-        <v>20.68</v>
+        <v>699.92</v>
       </c>
       <c r="L2" s="1">
-        <v>0.42</v>
+        <v>265.22000000000003</v>
       </c>
       <c r="M2" s="1">
-        <v>540974.09</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>3514285</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>19</v>
+        <v>77.209999999999994</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <f>"1805700502"</f>
+        <v>1805700502</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f t="shared" ref="R2" si="4">"E042902565"</f>
+        <v>E042902565</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>20160713</v>
-      </c>
-      <c r="B3" s="1">
-        <v>600148</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>20160729</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>"普通卖出"</f>
+        <v>普通卖出</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>"000002"</f>
+        <v>000002</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>"万 科Ａ"</f>
+        <v>万 科Ａ</v>
       </c>
       <c r="E3" s="1">
-        <v>800</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>23.922999999999998</v>
+        <v>207000</v>
       </c>
       <c r="G3" s="1">
-        <v>19138</v>
+        <v>138138</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>3487950</v>
       </c>
       <c r="I3" s="1">
-        <v>19113.47</v>
+        <v>3483589.73</v>
       </c>
       <c r="J3" s="1">
-        <v>5</v>
+        <v>1983628.78</v>
       </c>
       <c r="K3" s="1">
-        <v>19.14</v>
+        <v>562.79</v>
       </c>
       <c r="L3" s="1">
-        <v>0.39</v>
+        <v>309.2</v>
       </c>
       <c r="M3" s="1">
-        <v>560087.56000000006</v>
+        <v>3488.28</v>
       </c>
       <c r="N3" s="1">
-        <v>3545285</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f>"F6700159"</f>
+        <v>F6700159</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f t="shared" ref="R3:R4" si="5">"0604291857"</f>
+        <v>0604291857</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>20160713</v>
-      </c>
-      <c r="B4" s="1">
-        <v>600262</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>20160729</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" ref="B4" si="6">"普通买入"</f>
+        <v>普通买入</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>"002798"</f>
+        <v>002798</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>"帝王洁具"</f>
+        <v>帝王洁具</v>
       </c>
       <c r="E4" s="1">
-        <v>500</v>
+        <v>65.8</v>
       </c>
       <c r="F4" s="1">
-        <v>28.64</v>
+        <v>11300</v>
       </c>
       <c r="G4" s="1">
-        <v>14320</v>
+        <v>70133</v>
       </c>
       <c r="H4" s="1">
-        <v>500</v>
+        <v>743540</v>
       </c>
       <c r="I4" s="1">
-        <v>-14325.29</v>
+        <v>-743725.89</v>
       </c>
       <c r="J4" s="1">
-        <v>5</v>
+        <v>172057</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>120.01</v>
       </c>
       <c r="L4" s="1">
-        <v>0.28999999999999998</v>
+        <v>65.88</v>
       </c>
       <c r="M4" s="1">
-        <v>545762.27</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>7447071</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f>"F6700193"</f>
+        <v>F6700193</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0604291857</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/GuoTai_N.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/GuoTai_N.xlsx
@@ -11,10 +11,6 @@
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,7 +363,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="A1:XFD1048576"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
